--- a/УДС.xlsx
+++ b/УДС.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
   <si>
     <t>ТИП</t>
   </si>
@@ -455,6 +455,9 @@
     <t xml:space="preserve">ДТ не заработал, просьба отправить инженеров на диагностику, взять с собой АКБ рабочий.
 Произведена замена сим-карты. Юстировка. Настройка. Датчик настроил. Настройка производилась в условиях дефицита трафика ТС.
 </t>
+  </si>
+  <si>
+    <t>Дабавим немного изменений</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -567,11 +570,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,6 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -884,15 +899,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -953,8 +968,11 @@
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1058,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1080,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1134,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1156,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1178,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1246,7 +1264,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>

--- a/УДС.xlsx
+++ b/УДС.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\forgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\forgit\forexam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>ТИП</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Дабавим немного изменений</t>
+  </si>
+  <si>
+    <t>Попытка первого изменения</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,6 +1006,9 @@
       <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="K3" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">

--- a/УДС.xlsx
+++ b/УДС.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
   <si>
     <t>ТИП</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Попытка первого изменения</t>
+  </si>
+  <si>
+    <t>попытка второго изменения</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1044,9 @@
       <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="K4" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">

--- a/УДС.xlsx
+++ b/УДС.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="142">
   <si>
     <t>ТИП</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>Попытка первого изменения</t>
+  </si>
+  <si>
+    <t>попытка третьего изменения</t>
+  </si>
+  <si>
+    <t>попытка второго изменения</t>
   </si>
 </sst>
 </file>
@@ -904,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1047,9 @@
       <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="K4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -1063,6 +1072,9 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
+      <c r="K5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">

--- a/УДС.xlsx
+++ b/УДС.xlsx
@@ -908,15 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -981,7 +981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1050,8 +1050,11 @@
       <c r="K4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1155,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1199,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1285,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
